--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/29.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/29.xlsx
@@ -479,13 +479,13 @@
         <v>-11.01415183679891</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.71583258000806</v>
+        <v>-12.23518471878348</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3602563837062973</v>
+        <v>3.616486246876656</v>
       </c>
       <c r="G2" t="n">
-        <v>-12.52136762474522</v>
+        <v>-16.22197914748481</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.15527263255045</v>
       </c>
       <c r="E3" t="n">
-        <v>-15.15009861496178</v>
+        <v>-12.92200218146143</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.0875694902629</v>
+        <v>3.075429634928913</v>
       </c>
       <c r="G3" t="n">
-        <v>-12.67896965010709</v>
+        <v>-16.31626853392013</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.33723315001211</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.91829848594639</v>
+        <v>-13.71227591845016</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.695116595600686</v>
+        <v>2.55814337436811</v>
       </c>
       <c r="G4" t="n">
-        <v>-11.88970304853294</v>
+        <v>-15.368412327597</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.49828105544154</v>
       </c>
       <c r="E5" t="n">
-        <v>-16.31654231830468</v>
+        <v>-14.16953984170585</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6979449770109797</v>
+        <v>3.168423434544502</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.72190255484668</v>
+        <v>-14.76938676122825</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.62509566861022</v>
       </c>
       <c r="E6" t="n">
-        <v>-17.09327839527893</v>
+        <v>-14.90312065506584</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4954178675490279</v>
+        <v>3.343469436407525</v>
       </c>
       <c r="G6" t="n">
-        <v>-11.2869520589316</v>
+        <v>-14.12293782825042</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.66733334975073</v>
       </c>
       <c r="E7" t="n">
-        <v>-17.87192607393814</v>
+        <v>-15.69718337237643</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.74094125696428</v>
+        <v>2.514416096950422</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.3248737316326</v>
+        <v>-13.08704038626788</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.60981822930211</v>
       </c>
       <c r="E8" t="n">
-        <v>-19.07788273077945</v>
+        <v>-16.80903153603649</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.366541111095933</v>
+        <v>2.703229542150678</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.95827390528264</v>
+        <v>-12.87510193858711</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.4128551450991</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.79884266385028</v>
+        <v>-16.75392753963949</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.08474853330069</v>
+        <v>3.054353126325642</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.73389293512557</v>
+        <v>-12.63937847249881</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.07836877676568</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.8088968155343</v>
+        <v>-17.57888878034899</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.650555833449973</v>
+        <v>3.461485173167985</v>
       </c>
       <c r="G10" t="n">
-        <v>-10.48083793969406</v>
+        <v>-12.12303579026332</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.59582388508368</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.49533293567663</v>
+        <v>-18.23273478071646</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.171484404126628</v>
+        <v>2.811281482916365</v>
       </c>
       <c r="G11" t="n">
-        <v>-10.46007921653714</v>
+        <v>-11.64895368338544</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.00226785353454</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.3512562568743</v>
+        <v>-19.23369049062116</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.740464669732539</v>
+        <v>3.276890940893877</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.29753440523282</v>
+        <v>-11.38751404117717</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.322577849689885</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.8022084722648</v>
+        <v>-19.7740381965732</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5248007988191867</v>
+        <v>3.399160113628553</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.29230805689208</v>
+        <v>-11.35857112052503</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.623468860740259</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.30146407550042</v>
+        <v>-20.49686808383284</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03778237977145421</v>
+        <v>3.892045340916583</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.542891750290158</v>
+        <v>-10.71638051252829</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.948797695368237</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.19107518945235</v>
+        <v>-20.43298343110286</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2919077982989553</v>
+        <v>4.104330908084897</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.369605790899225</v>
+        <v>-10.58749162449581</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.371933540001808</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.12803868847599</v>
+        <v>-21.47296808282614</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3609503532735282</v>
+        <v>4.138368173892359</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.659020330399988</v>
+        <v>-10.90268589720581</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.930039558567231</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.3167518180977</v>
+        <v>-22.85413207875709</v>
       </c>
       <c r="F17" t="n">
-        <v>1.026075292482972</v>
+        <v>4.63789267250566</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.28746069752132</v>
+        <v>-10.54372523502318</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.676628898974448</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.36451741518745</v>
+        <v>-22.85477253865665</v>
       </c>
       <c r="F18" t="n">
-        <v>1.248089983316447</v>
+        <v>4.851200042109159</v>
       </c>
       <c r="G18" t="n">
-        <v>-9.211505086836929</v>
+        <v>-10.58458755441686</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.616853821995341</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.24284705485619</v>
+        <v>-23.69031847923302</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9955483336059554</v>
+        <v>4.695729623741264</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.801070606793769</v>
+        <v>-9.168912059012365</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.763350348195665</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.32395314333709</v>
+        <v>-24.73940646174249</v>
       </c>
       <c r="F20" t="n">
-        <v>1.151708101942086</v>
+        <v>4.787696731914801</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.130152194447031</v>
+        <v>-8.562895212823923</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.080231159648446</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.40336763544205</v>
+        <v>-25.69965141146639</v>
       </c>
       <c r="F21" t="n">
-        <v>1.558185021864261</v>
+        <v>4.945758323922162</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.280503822625266</v>
+        <v>-8.669446228481467</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.542491211821547</v>
       </c>
       <c r="E22" t="n">
-        <v>-28.19962796133931</v>
+        <v>-26.48457657494272</v>
       </c>
       <c r="F22" t="n">
-        <v>1.234928776830712</v>
+        <v>4.824623400780609</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.808093756095875</v>
+        <v>-7.955323662451803</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-8.089687345550834</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.2472346657059</v>
+        <v>-26.72782666710264</v>
       </c>
       <c r="F23" t="n">
-        <v>1.701208028748991</v>
+        <v>5.08678661600519</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.286651839698195</v>
+        <v>-7.460707726732884</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.68018350623745</v>
       </c>
       <c r="E24" t="n">
-        <v>-29.06890560479396</v>
+        <v>-27.61676789617601</v>
       </c>
       <c r="F24" t="n">
-        <v>2.469368787678668</v>
+        <v>5.717409833754815</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.96525830628094</v>
+        <v>-7.096041593536564</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.250362613971252</v>
       </c>
       <c r="E25" t="n">
-        <v>-29.49705549215717</v>
+        <v>-27.81355775607964</v>
       </c>
       <c r="F25" t="n">
-        <v>2.461125922101049</v>
+        <v>5.624479591228496</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.100370900055001</v>
+        <v>-6.928656665433998</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.76099031591724</v>
       </c>
       <c r="E26" t="n">
-        <v>-29.95240781372789</v>
+        <v>-28.18639830875744</v>
       </c>
       <c r="F26" t="n">
-        <v>2.15533320959612</v>
+        <v>5.439748466762115</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.451819694124398</v>
+        <v>-6.275979137707719</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.163924181838</v>
       </c>
       <c r="E27" t="n">
-        <v>-30.09731308825639</v>
+        <v>-28.44398052454772</v>
       </c>
       <c r="F27" t="n">
-        <v>2.711589743893102</v>
+        <v>5.791957410461534</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.843585592384027</v>
+        <v>-6.226248159857461</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.43875029167778</v>
       </c>
       <c r="E28" t="n">
-        <v>-29.96274317424455</v>
+        <v>-28.42595720073284</v>
       </c>
       <c r="F28" t="n">
-        <v>2.338548741933758</v>
+        <v>5.624381811091157</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.582431866139681</v>
+        <v>-6.495231539661387</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.56116557716306</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.72199380909706</v>
+        <v>-28.42094107968739</v>
       </c>
       <c r="F29" t="n">
-        <v>2.110960583272</v>
+        <v>5.355554879506973</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.432794032964016</v>
+        <v>-6.333972537163064</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.52937544494469</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.75266254917322</v>
+        <v>-28.44930954203266</v>
       </c>
       <c r="F30" t="n">
-        <v>3.031961474875172</v>
+        <v>6.125891246492426</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.810826710934481</v>
+        <v>-6.673802515475455</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.34041790673689</v>
       </c>
       <c r="E31" t="n">
-        <v>-29.45448446486351</v>
+        <v>-28.07617564894284</v>
       </c>
       <c r="F31" t="n">
-        <v>2.839803948977947</v>
+        <v>6.037033546686247</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.651093078578636</v>
+        <v>-6.414543370329823</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-10.01499592100459</v>
       </c>
       <c r="E32" t="n">
-        <v>-29.23451826790727</v>
+        <v>-28.02342326484883</v>
       </c>
       <c r="F32" t="n">
-        <v>2.149989525090582</v>
+        <v>5.431114480635143</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.305063839558996</v>
+        <v>-6.169442789070775</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.574244689093309</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.47318256256381</v>
+        <v>-27.35655783919477</v>
       </c>
       <c r="F33" t="n">
-        <v>2.553924161441962</v>
+        <v>5.755328971014608</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.445216999412847</v>
+        <v>-6.287380301721365</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.057375263423221</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.20713503138346</v>
+        <v>-27.11513868010651</v>
       </c>
       <c r="F34" t="n">
-        <v>1.923506281980747</v>
+        <v>5.055394302912729</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.688868081073637</v>
+        <v>-5.709773474436565</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.496927508635315</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.14043675520158</v>
+        <v>-26.86210079619902</v>
       </c>
       <c r="F35" t="n">
-        <v>2.745455894460222</v>
+        <v>5.856560747200948</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.956003416281869</v>
+        <v>-6.004086798817978</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.934551328587338</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.22306106219022</v>
+        <v>-26.22210046327865</v>
       </c>
       <c r="F36" t="n">
-        <v>2.24178062901691</v>
+        <v>5.447971776312266</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.333486171917589</v>
+        <v>-5.543390792741715</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.397866699670494</v>
       </c>
       <c r="E37" t="n">
-        <v>-26.54670362970404</v>
+        <v>-25.35653113153257</v>
       </c>
       <c r="F37" t="n">
-        <v>2.23659828173798</v>
+        <v>5.318750435812836</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.046310797561872</v>
+        <v>-5.308738019157266</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.917751929474</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.62363224369273</v>
+        <v>-24.55940300691642</v>
       </c>
       <c r="F38" t="n">
-        <v>1.364668352058034</v>
+        <v>4.723064061134186</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.62066897072139</v>
+        <v>-5.023616027685653</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.507994088805883</v>
       </c>
       <c r="E39" t="n">
-        <v>-25.56602996478674</v>
+        <v>-24.25584457054967</v>
       </c>
       <c r="F39" t="n">
-        <v>1.248676664140477</v>
+        <v>4.592918698336909</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.307794440831951</v>
+        <v>-5.447092024484092</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.183306820963314</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.92101351082091</v>
+        <v>-23.76695366187191</v>
       </c>
       <c r="F40" t="n">
-        <v>1.429574807223197</v>
+        <v>4.720800450954804</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.053854535157522</v>
+        <v>-5.477447868120767</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.942998563563815</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.26067979834105</v>
+        <v>-23.18751834601888</v>
       </c>
       <c r="F41" t="n">
-        <v>1.682087122892487</v>
+        <v>5.002886369162063</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.06870733801921</v>
+        <v>-5.633089401729004</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.787458462542324</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.2085678741466</v>
+        <v>-22.98068891051404</v>
       </c>
       <c r="F42" t="n">
-        <v>1.633138386140935</v>
+        <v>4.802603313852025</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.407246618518735</v>
+        <v>-5.912183247733711</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.704236411034932</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.63748787102913</v>
+        <v>-22.63348142083948</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9007944915182768</v>
+        <v>4.128629272213464</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.783983709669467</v>
+        <v>-6.27043011491377</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.683702062366389</v>
       </c>
       <c r="E44" t="n">
-        <v>-23.28752298148163</v>
+        <v>-22.13644053771457</v>
       </c>
       <c r="F44" t="n">
-        <v>1.404464867954722</v>
+        <v>4.555077785186988</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.647956871611292</v>
+        <v>-6.343574546649685</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.708400794296122</v>
       </c>
       <c r="E45" t="n">
-        <v>-23.01613909930605</v>
+        <v>-21.82753841684228</v>
       </c>
       <c r="F45" t="n">
-        <v>1.025630392858083</v>
+        <v>4.45634429150964</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.68631113048224</v>
+        <v>-6.590337390243484</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.765705548787397</v>
       </c>
       <c r="E46" t="n">
-        <v>-22.31014695169606</v>
+        <v>-21.31928215196467</v>
       </c>
       <c r="F46" t="n">
-        <v>1.397238915805421</v>
+        <v>4.536255108749366</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.471444167688195</v>
+        <v>-6.638469662848261</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.840101151182571</v>
       </c>
       <c r="E47" t="n">
-        <v>-22.68884453460042</v>
+        <v>-21.6566089587612</v>
       </c>
       <c r="F47" t="n">
-        <v>1.224950313815339</v>
+        <v>4.710875767014967</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.873892545952033</v>
+        <v>-7.129462844478796</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.922544989702748</v>
       </c>
       <c r="E48" t="n">
-        <v>-21.58558146699866</v>
+        <v>-20.9083122347318</v>
       </c>
       <c r="F48" t="n">
-        <v>1.337861927406739</v>
+        <v>4.748022441189787</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.334635088531314</v>
+        <v>-6.889598389574214</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.003982913053898</v>
       </c>
       <c r="E49" t="n">
-        <v>-21.34504232914645</v>
+        <v>-20.55284721245902</v>
       </c>
       <c r="F49" t="n">
-        <v>1.457970159106239</v>
+        <v>4.901874598284733</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.890522593747627</v>
+        <v>-6.636646063286902</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.080668058107675</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.6243219574121</v>
+        <v>-20.77604993196115</v>
       </c>
       <c r="F50" t="n">
-        <v>1.451223329629896</v>
+        <v>4.823821603654435</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.59474492087179</v>
+        <v>-7.344823596966399</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.149360427053232</v>
       </c>
       <c r="E51" t="n">
-        <v>-20.95622450202757</v>
+        <v>-20.11632245633278</v>
       </c>
       <c r="F51" t="n">
-        <v>2.107753394767304</v>
+        <v>5.292525802978705</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.815483580913</v>
+        <v>-7.374514535669173</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.210806304507058</v>
       </c>
       <c r="E52" t="n">
-        <v>-20.33585353167786</v>
+        <v>-19.46703301036527</v>
       </c>
       <c r="F52" t="n">
-        <v>2.254360043685482</v>
+        <v>5.438086204427363</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.58718651625554</v>
+        <v>-7.364702298887275</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.267418885256884</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.07791930739317</v>
+        <v>-19.33916592476798</v>
       </c>
       <c r="F53" t="n">
-        <v>2.175984374601969</v>
+        <v>5.536115681115875</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.286236274114507</v>
+        <v>-8.014514868589542</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.323740627144939</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.21573805740585</v>
+        <v>-18.49677537457794</v>
       </c>
       <c r="F54" t="n">
-        <v>2.732358245063757</v>
+        <v>5.943428621212293</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.371195081882104</v>
+        <v>-7.510184476226063</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.385117399966268</v>
       </c>
       <c r="E55" t="n">
-        <v>-19.09577649591235</v>
+        <v>-18.14733360876519</v>
       </c>
       <c r="F55" t="n">
-        <v>2.707111413603008</v>
+        <v>5.985234518931283</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.694160340069289</v>
+        <v>-8.714669542000431</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.455819486935661</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.16270699992042</v>
+        <v>-18.28284710110234</v>
       </c>
       <c r="F56" t="n">
-        <v>2.140299513480357</v>
+        <v>5.509382591567584</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.223622763169927</v>
+        <v>-8.471104108897595</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.540620982801961</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.02455833288201</v>
+        <v>-17.99733398908137</v>
       </c>
       <c r="F57" t="n">
-        <v>2.627308154514355</v>
+        <v>5.879959534066003</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.538191243000968</v>
+        <v>-8.96878545192207</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.641406694310302</v>
       </c>
       <c r="E58" t="n">
-        <v>-18.14922565442269</v>
+        <v>-17.22749630079634</v>
       </c>
       <c r="F58" t="n">
-        <v>2.457385831847859</v>
+        <v>5.772464940083145</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.950979870788331</v>
+        <v>-9.45780347477837</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.761150320831655</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.51770285940955</v>
+        <v>-16.81828642603556</v>
       </c>
       <c r="F59" t="n">
-        <v>2.474463132833993</v>
+        <v>5.794607252183402</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.766947874303919</v>
+        <v>-9.291723911509269</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.898226441396166</v>
       </c>
       <c r="E60" t="n">
-        <v>-16.68936820396188</v>
+        <v>-15.88862710327108</v>
       </c>
       <c r="F60" t="n">
-        <v>2.061283384497277</v>
+        <v>5.504610920865475</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.929008673928416</v>
+        <v>-9.385113720681078</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.0519851174996</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.36960270983131</v>
+        <v>-15.59244617826651</v>
       </c>
       <c r="F61" t="n">
-        <v>2.062642528406279</v>
+        <v>5.481833037872518</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.774770285290983</v>
+        <v>-9.27124875075063</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.215327727204293</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.74491963542499</v>
+        <v>-15.08273298934256</v>
       </c>
       <c r="F62" t="n">
-        <v>1.783162450859087</v>
+        <v>5.181452455969264</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.972840974055958</v>
+        <v>-10.34481110163588</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.383641480208362</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.16691679858397</v>
+        <v>-14.70642124178925</v>
       </c>
       <c r="F63" t="n">
-        <v>1.965326846720338</v>
+        <v>5.278787693682673</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.812564661937886</v>
+        <v>-10.10312304716994</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.54611157067656</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.58913632061761</v>
+        <v>-15.02429957926919</v>
       </c>
       <c r="F64" t="n">
-        <v>1.800987769895859</v>
+        <v>4.986894427700384</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.18535143554015</v>
+        <v>-10.45732670567106</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.696883305679409</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.13819388324084</v>
+        <v>-14.69529875116702</v>
       </c>
       <c r="F65" t="n">
-        <v>1.632830378708319</v>
+        <v>4.937882133859562</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.589642969392814</v>
+        <v>-10.91504041755851</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.824184662450834</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.1714635749702</v>
+        <v>-14.71003910687076</v>
       </c>
       <c r="F66" t="n">
-        <v>1.36996803550177</v>
+        <v>4.792737297994591</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.896604154538938</v>
+        <v>-11.27217748017978</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.923567499471599</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.05857640641313</v>
+        <v>-14.62706288232548</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5140056022491676</v>
+        <v>4.07713336288425</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.945777785606367</v>
+        <v>-11.24204164185211</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.984861892405468</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.390857758123</v>
+        <v>-14.94581146302774</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8117803434923563</v>
+        <v>4.281185842488679</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.179242530522158</v>
+        <v>-11.36545484219365</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.007290014038395</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.86250513958116</v>
+        <v>-15.51112732704911</v>
       </c>
       <c r="F69" t="n">
-        <v>1.047381584408988</v>
+        <v>4.594849856049341</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.631140859679189</v>
+        <v>-11.06610095173245</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.984168852059242</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.33135365554578</v>
+        <v>-15.00093012644534</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8917400508007503</v>
+        <v>4.410128509596693</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.300101315713512</v>
+        <v>-10.97445162900526</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.919772927185171</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.37070527181758</v>
+        <v>-15.20881069842656</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4869498382476602</v>
+        <v>4.07445418712118</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.996031887191387</v>
+        <v>-11.47478770275847</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.811771367404014</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.72258665205692</v>
+        <v>-15.40663947228941</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5834050547250252</v>
+        <v>4.07846317275205</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.259373353070893</v>
+        <v>-11.703192325567</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.670577929078521</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.12019002451564</v>
+        <v>-15.65636505404456</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6136191171625597</v>
+        <v>4.168978245886113</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.577735702230662</v>
+        <v>-12.21243128082486</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.498710655169466</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.59012625357038</v>
+        <v>-16.27374395219171</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6311510957873167</v>
+        <v>4.209405443668634</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.526655358485133</v>
+        <v>-12.15241872153348</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.311653416468646</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.93230295517889</v>
+        <v>-16.63174636902842</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4575131279019654</v>
+        <v>4.097344517272075</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.731597637339341</v>
+        <v>-12.30608998537435</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.114087580851607</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.72909138475557</v>
+        <v>-16.56493320118516</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2960292310877646</v>
+        <v>3.928576000226172</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.00346553119475</v>
+        <v>-12.56393620753544</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.923097310574787</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.86941077084289</v>
+        <v>-16.79712680431555</v>
       </c>
       <c r="F77" t="n">
-        <v>0.210300495676411</v>
+        <v>3.96266704510917</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.398592712613164</v>
+        <v>-11.95081074536251</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.742467237169314</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.71353691847069</v>
+        <v>-17.66842605210967</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1138651046343846</v>
+        <v>3.672343150331159</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.164619510983215</v>
+        <v>-11.81722352173092</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.588710452972</v>
       </c>
       <c r="E79" t="n">
-        <v>-18.16728564578907</v>
+        <v>-18.04595027336597</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4119378058885842</v>
+        <v>4.147769734097436</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.35617568903581</v>
+        <v>-11.90121177069766</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.461975234297238</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.49798784828093</v>
+        <v>-18.5072867393418</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03341622723142818</v>
+        <v>3.792822946552544</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.148099556779909</v>
+        <v>-11.74744272671945</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.375926677775677</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.45506472155507</v>
+        <v>-19.59856685111275</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1624126734149791</v>
+        <v>3.955665987275748</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.770022877747643</v>
+        <v>-11.25463572354129</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.325332332171695</v>
       </c>
       <c r="E82" t="n">
-        <v>-20.14854101158575</v>
+        <v>-20.41057711263179</v>
       </c>
       <c r="F82" t="n">
-        <v>0.03477048213356362</v>
+        <v>3.840813437958182</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.966707624003631</v>
+        <v>-11.24126917876714</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.318663079348642</v>
       </c>
       <c r="E83" t="n">
-        <v>-21.0297209422579</v>
+        <v>-21.27290503282512</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2157908503879565</v>
+        <v>4.075700883872243</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.305904566864539</v>
+        <v>-10.76703551267639</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.344361371284823</v>
       </c>
       <c r="E84" t="n">
-        <v>-22.58286553274631</v>
+        <v>-22.73697191819834</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4950511920340093</v>
+        <v>3.676704144456448</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.096112393198352</v>
+        <v>-10.44732379762135</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.408783626570846</v>
       </c>
       <c r="E85" t="n">
-        <v>-23.69777421470506</v>
+        <v>-23.96286594504292</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.08174432951875342</v>
+        <v>4.092005721773405</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.177309019244076</v>
+        <v>-10.40772284199934</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.499545731536243</v>
       </c>
       <c r="E86" t="n">
-        <v>-25.30368585630808</v>
+        <v>-25.49567226696496</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.1049280000816641</v>
+        <v>4.091335927832637</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.094809563806102</v>
+        <v>-9.385030607564341</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.626009510943717</v>
       </c>
       <c r="E87" t="n">
-        <v>-26.0661362552172</v>
+        <v>-26.30797097988915</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2180446825536043</v>
+        <v>4.331420388046229</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.203883307006975</v>
+        <v>-9.422030611533154</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.777218799727978</v>
       </c>
       <c r="E88" t="n">
-        <v>-26.79358625396608</v>
+        <v>-27.15378627938947</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5671148838444646</v>
+        <v>4.71370650199091</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.458913461212726</v>
+        <v>-9.270842963180677</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.965949104292847</v>
       </c>
       <c r="E89" t="n">
-        <v>-28.33531012441337</v>
+        <v>-28.73465887232359</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.2602810822847535</v>
+        <v>4.152952081376366</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.269814100048539</v>
+        <v>-8.320723146678159</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.18188909500613</v>
       </c>
       <c r="E90" t="n">
-        <v>-29.3710462291693</v>
+        <v>-30.13683093076166</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.2349755827416017</v>
+        <v>4.166391961253516</v>
       </c>
       <c r="G90" t="n">
-        <v>-6.946085974914549</v>
+        <v>-8.874706292782026</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.440511228688386</v>
       </c>
       <c r="E91" t="n">
-        <v>-31.24642281775264</v>
+        <v>-32.0150211427969</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.05695706470349464</v>
+        <v>4.336216503782674</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.526658075801916</v>
+        <v>-8.229851176042811</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.730769826804069</v>
       </c>
       <c r="E92" t="n">
-        <v>-32.64167693147403</v>
+        <v>-33.55444718001675</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1666954434303966</v>
+        <v>4.680153247863273</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.190306534937552</v>
+        <v>-8.825043761027903</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.068732090218852</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.98067324317783</v>
+        <v>-35.11136119479955</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2623879748365229</v>
+        <v>4.664527981916613</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.278924673407253</v>
+        <v>-8.565950842115745</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.440722747696938</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.42909286207349</v>
+        <v>-36.86900316451727</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.48403625956285</v>
+        <v>4.063409920608819</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.403621328989135</v>
+        <v>-7.761841215693643</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.859520258523798</v>
       </c>
       <c r="E95" t="n">
-        <v>-38.32151732666397</v>
+        <v>-39.56594557854104</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5309071683959635</v>
+        <v>4.118308578717407</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.609013396475098</v>
+        <v>-7.580322168738825</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.310899561331405</v>
       </c>
       <c r="E96" t="n">
-        <v>-40.17876547778479</v>
+        <v>-41.3072753768473</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4709337211595179</v>
+        <v>4.010378863123393</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.332232050718442</v>
+        <v>-7.134092733981764</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.799177133440386</v>
       </c>
       <c r="E97" t="n">
-        <v>-42.14491870136958</v>
+        <v>-43.33461941037839</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.9809060274474161</v>
+        <v>3.820235608055337</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.154457983023681</v>
+        <v>-7.028040397024645</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.3134101822797</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.76233662063388</v>
+        <v>-44.9718011399022</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.004959941232638</v>
+        <v>3.814251463650232</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.893815248934711</v>
+        <v>-6.711931880030525</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.84365725952634</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.09726518768662</v>
+        <v>-47.48631759619733</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4723466441440563</v>
+        <v>4.17606730584314</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.367946245881257</v>
+        <v>-7.14890153578165</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.39210331244143</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.99371217361465</v>
+        <v>-49.50105777002551</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.8607195716380459</v>
+        <v>3.618671632946167</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.88084217827557</v>
+        <v>-7.436052465103032</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.91991780849832</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.04569924625842</v>
+        <v>-51.29480994446227</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3512117210025046</v>
+        <v>4.14318384565627</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.917035496111341</v>
+        <v>-7.447932751789635</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.47265587279618</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.81663075889214</v>
+        <v>-52.88326049804011</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7402251083960601</v>
+        <v>3.765977409846315</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.339704806776739</v>
+        <v>-7.79885099767619</v>
       </c>
     </row>
   </sheetData>
